--- a/db/mst_data/mst_api_config.xlsx
+++ b/db/mst_data/mst_api_config.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t>33be74d2a7bd9ca65584d78ea7d9316c</t>
+  </si>
+  <si>
+    <t>Mst::InfToApi</t>
+  </si>
+  <si>
+    <t>Jv964n8AmreBeLbnvWAU4gSV50787QGDM4k3EkVb</t>
   </si>
   <si>
     <t>mst_api_config_id</t>
@@ -60,6 +66,12 @@
   </si>
   <si>
     <t>json</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>http://inf.to/api/insert</t>
   </si>
 </sst>
 </file>
@@ -111,10 +123,9 @@
       <name val="Menlo Regular"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="0"/>
+      <sz val="13"/>
       <color indexed="11"/>
-      <name val="Verdana"/>
+      <name val="Lucida Grande"/>
     </font>
     <font>
       <u val="single"/>
@@ -325,7 +336,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -353,22 +364,25 @@
     <xf numFmtId="1" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -380,7 +394,7 @@
     <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -404,13 +418,13 @@
     <xf numFmtId="1" fontId="11" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1710,9 +1724,15 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" ht="15.65" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="9">
+        <v>7</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
@@ -1752,18 +1772,18 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1785,15 +1805,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="15" customWidth="1"/>
-    <col min="9" max="256" width="10.875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="16" customWidth="1"/>
+    <col min="9" max="256" width="10.875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1801,25 +1821,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
@@ -1830,54 +1850,64 @@
         <v>1</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s" s="16">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D2" t="s" s="17">
+        <v>16</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="21"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="24"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1913,14 +1943,14 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/db/mst_data/mst_api_config.xlsx
+++ b/db/mst_data/mst_api_config.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,27 @@
     <t>Jv964n8AmreBeLbnvWAU4gSV50787QGDM4k3EkVb</t>
   </si>
   <si>
+    <t>Mst::TwitterApi</t>
+  </si>
+  <si>
+    <t>FsRNQOHICbiLaelPwW9GQ6Okb</t>
+  </si>
+  <si>
+    <t>Doz7ypYbxH87zIvlgxcwezDYgHkvynQ589xok9vHfVowUXzHqE</t>
+  </si>
+  <si>
+    <t>Mst::FacebookApi</t>
+  </si>
+  <si>
+    <t>c583f06de5e2bbc16561ae62bf8014fb</t>
+  </si>
+  <si>
+    <t>Mst::GoogleApi</t>
+  </si>
+  <si>
+    <t>DjXUt3UtDe5q7Et8s5k4Qyhh</t>
+  </si>
+  <si>
     <t>mst_api_config_id</t>
   </si>
   <si>
@@ -72,6 +93,12 @@
   </si>
   <si>
     <t>http://inf.to/api/insert</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>http://maps.googleapis.com/maps/api/elevation/json</t>
   </si>
 </sst>
 </file>
@@ -128,10 +155,9 @@
       <name val="Lucida Grande"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="12"/>
-      <name val="Verdana"/>
+      <name val="Monaco"/>
     </font>
     <font>
       <u val="single"/>
@@ -336,7 +362,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -367,6 +393,9 @@
     <xf numFmtId="0" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="1" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -397,8 +426,8 @@
     <xf numFmtId="0" fontId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -447,7 +476,7 @@
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ff0433ff"/>
+      <rgbColor rgb="ff3933ff"/>
       <rgbColor rgb="ff333333"/>
       <rgbColor rgb="fff9e5ea"/>
     </indexedColors>
@@ -1737,24 +1766,48 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" ht="15.65" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s" s="10">
+        <v>10</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" ht="15.65" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1468503420078874</v>
+      </c>
+      <c r="D5" t="s" s="10">
+        <v>12</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="15.65" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>248634638505</v>
+      </c>
+      <c r="D6" t="s" s="10">
+        <v>14</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" ht="15.65" customHeight="1">
@@ -1772,18 +1825,18 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1805,15 +1858,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="16" customWidth="1"/>
-    <col min="9" max="256" width="10.875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="17" customWidth="1"/>
+    <col min="9" max="256" width="10.875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1821,25 +1874,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s" s="3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1">
@@ -1850,64 +1903,76 @@
         <v>1</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s" s="17">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="D2" t="s" s="18">
+        <v>23</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="18">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="19">
         <v>2</v>
       </c>
       <c r="C3" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s" s="19">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="D3" t="s" s="20">
+        <v>26</v>
       </c>
       <c r="E3" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="22"/>
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s" s="21">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="F4" s="22">
+        <v>2500</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="25"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1943,14 +2008,14 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/db/mst_data/mst_api_config.xlsx
+++ b/db/mst_data/mst_api_config.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>http://maps.googleapis.com/maps/api/elevation/json</t>
+  </si>
+  <si>
+    <t>geocode</t>
+  </si>
+  <si>
+    <t>https://maps.googleapis.com/maps/api/geocode/json</t>
   </si>
 </sst>
 </file>
@@ -108,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -161,14 +167,8 @@
     </font>
     <font>
       <u val="single"/>
-      <sz val="10"/>
-      <color indexed="13"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <u val="single"/>
       <sz val="8"/>
-      <color indexed="13"/>
+      <color indexed="14"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -187,7 +187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -362,7 +362,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -435,6 +435,15 @@
     <xf numFmtId="14" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="1" fontId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -442,9 +451,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -477,8 +483,8 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff3933ff"/>
+      <rgbColor rgb="fff9e5ea"/>
       <rgbColor rgb="ff333333"/>
-      <rgbColor rgb="fff9e5ea"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1958,21 +1964,33 @@
       <c r="H4" s="23"/>
     </row>
     <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="24">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s" s="25">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2500</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -2008,14 +2026,14 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
